--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42977,6 +42977,41 @@
         <v>6014300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>3916500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43012,6 +43012,41 @@
         <v>3916500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>5088000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43047,6 +43047,41 @@
         <v>5088000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>2951100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43082,6 +43082,41 @@
         <v>2951100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3507000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43117,6 +43117,41 @@
         <v>3507000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1948000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43152,6 +43152,41 @@
         <v>1948000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2395500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43187,6 +43187,41 @@
         <v>2395500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1702900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43222,6 +43222,41 @@
         <v>1702900</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3151600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43257,6 +43257,41 @@
         <v>3151600</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>4313700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43292,6 +43292,41 @@
         <v>4313700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>6239500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43327,6 +43327,41 @@
         <v>6239500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>2072900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43362,6 +43362,41 @@
         <v>2072900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1467000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43397,6 +43397,76 @@
         <v>1467000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1929200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>26320300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43467,6 +43467,76 @@
         <v>26320300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>16995900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>8748800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43537,6 +43537,41 @@
         <v>8748800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>19352200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43572,6 +43572,41 @@
         <v>19352200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>18496000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43607,6 +43607,41 @@
         <v>18496000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>11615700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43642,6 +43642,41 @@
         <v>11615700</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>6948600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43677,6 +43677,76 @@
         <v>6948600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>3419000</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2884800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43747,6 +43747,41 @@
         <v>2884800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>3571900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43782,6 +43782,41 @@
         <v>3571900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>4112200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2194"/>
+  <dimension ref="A1:I2195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77172,6 +77172,41 @@
         <v>4112200</v>
       </c>
     </row>
+    <row r="2195">
+      <c r="A2195" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2195" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2195" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2195" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2195" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2195" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2195" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2195" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2195" t="n">
+        <v>4812800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2195"/>
+  <dimension ref="A1:I2196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77207,6 +77207,41 @@
         <v>4812800</v>
       </c>
     </row>
+    <row r="2196">
+      <c r="A2196" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2196" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2196" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2196" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2196" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2196" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2196" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2196" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2196" t="n">
+        <v>2083800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2196"/>
+  <dimension ref="A1:I2197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77242,6 +77242,41 @@
         <v>2083800</v>
       </c>
     </row>
+    <row r="2197">
+      <c r="A2197" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2197" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2197" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2197" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2197" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2197" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2197" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2197" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2197" t="n">
+        <v>1680400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2197"/>
+  <dimension ref="A1:I2198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77277,6 +77277,41 @@
         <v>1680400</v>
       </c>
     </row>
+    <row r="2198">
+      <c r="A2198" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2198" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2198" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2198" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2198" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2198" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2198" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2198" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2198" t="n">
+        <v>9209200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2198"/>
+  <dimension ref="A1:I2199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77312,6 +77312,41 @@
         <v>9209200</v>
       </c>
     </row>
+    <row r="2199">
+      <c r="A2199" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2199" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2199" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2199" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2199" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2199" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2199" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2199" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2199" t="n">
+        <v>1281000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2199"/>
+  <dimension ref="A1:I2200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77347,6 +77347,41 @@
         <v>1281000</v>
       </c>
     </row>
+    <row r="2200">
+      <c r="A2200" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2200" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2200" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2200" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2200" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2200" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2200" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2200" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2200" t="n">
+        <v>1005800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2200"/>
+  <dimension ref="A1:I2201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77382,6 +77382,41 @@
         <v>1005800</v>
       </c>
     </row>
+    <row r="2201">
+      <c r="A2201" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2201" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2201" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2201" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2201" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2201" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2201" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2201" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2201" t="n">
+        <v>1700500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2201"/>
+  <dimension ref="A1:I2202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77417,6 +77417,41 @@
         <v>1700500</v>
       </c>
     </row>
+    <row r="2202">
+      <c r="A2202" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2202" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2202" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2202" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2202" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2202" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2202" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2202" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2202" t="n">
+        <v>1378200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2202"/>
+  <dimension ref="A1:I2203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77452,6 +77452,41 @@
         <v>1378200</v>
       </c>
     </row>
+    <row r="2203">
+      <c r="A2203" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2203" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2203" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2203" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2203" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2203" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2203" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2203" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2203" t="n">
+        <v>318200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2203"/>
+  <dimension ref="A1:I2204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77487,6 +77487,41 @@
         <v>318200</v>
       </c>
     </row>
+    <row r="2204">
+      <c r="A2204" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2204" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2204" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2204" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2204" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2204" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2204" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2204" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2204" t="n">
+        <v>2260000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2204"/>
+  <dimension ref="A1:I2205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77522,6 +77522,41 @@
         <v>2260000</v>
       </c>
     </row>
+    <row r="2205">
+      <c r="A2205" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2205" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2205" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2205" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2205" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2205" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2205" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2205" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2205" t="n">
+        <v>5333100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2205"/>
+  <dimension ref="A1:I2206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77557,6 +77557,41 @@
         <v>5333100</v>
       </c>
     </row>
+    <row r="2206">
+      <c r="A2206" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2206" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2206" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2206" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2206" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2206" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2206" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2206" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2206" t="n">
+        <v>4143800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2206"/>
+  <dimension ref="A1:I2207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77592,6 +77592,41 @@
         <v>4143800</v>
       </c>
     </row>
+    <row r="2207">
+      <c r="A2207" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2207" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2207" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2207" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2207" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2207" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2207" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2207" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2207" t="n">
+        <v>1619700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2207"/>
+  <dimension ref="A1:I2208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77627,6 +77627,41 @@
         <v>1619700</v>
       </c>
     </row>
+    <row r="2208">
+      <c r="A2208" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2208" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2208" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2208" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2208" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2208" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2208" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2208" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2208" t="n">
+        <v>1808400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0007.xlsx
+++ b/data/0007.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2208"/>
+  <dimension ref="A1:I2209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77662,6 +77662,41 @@
         <v>1808400</v>
       </c>
     </row>
+    <row r="2209">
+      <c r="A2209" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2209" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2209" t="inlineStr">
+        <is>
+          <t>0007</t>
+        </is>
+      </c>
+      <c r="D2209" t="inlineStr">
+        <is>
+          <t>PUC</t>
+        </is>
+      </c>
+      <c r="E2209" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2209" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2209" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2209" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2209" t="n">
+        <v>975600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
